--- a/biology/Botanique/Château_de_Chaumont-sur-Loire/Château_de_Chaumont-sur-Loire.xlsx
+++ b/biology/Botanique/Château_de_Chaumont-sur-Loire/Château_de_Chaumont-sur-Loire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Chaumont-sur-Loire</t>
+          <t>Château_de_Chaumont-sur-Loire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le château de Chaumont-sur-Loire se trouve en Loir-et-Cher, sur les bords de la Loire, entre Amboise et Blois, en France. Il fait l’objet de classements au titre des monuments historiques par la liste de 1840, ainsi qu'en 1937 et 1955[2].
+Le château de Chaumont-sur-Loire se trouve en Loir-et-Cher, sur les bords de la Loire, entre Amboise et Blois, en France. Il fait l’objet de classements au titre des monuments historiques par la liste de 1840, ainsi qu'en 1937 et 1955.
 Il accueille chaque année, dans ses jardins, le Festival International des Jardins de Chaumont-sur-Loire.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Chaumont-sur-Loire</t>
+          <t>Château_de_Chaumont-sur-Loire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,15 +525,17 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Xe siècle, Eudes Ier, comte de Blois, fait construire une forteresse pour protéger la ville de Blois contre les attaques des comtes d'Anjou. Un batailleur du comte Eudes II, Gilduin de Saumur, surnommé le Diable de Saumur, combattit le comte d'Anjou Foulques Nerra et reçut en récompense le château de Chaumont[3]. Sa petite-nièce, Denise de Fougères (fille de Frangalo de Fougères selon des généalogies : cf. le site MedLands) ou de Pontlevoy, ayant épousé en 1039 Sulpice Ier d'Amboise, le château passe dans la famille d'Amboise pour cinq siècles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Xe siècle, Eudes Ier, comte de Blois, fait construire une forteresse pour protéger la ville de Blois contre les attaques des comtes d'Anjou. Un batailleur du comte Eudes II, Gilduin de Saumur, surnommé le Diable de Saumur, combattit le comte d'Anjou Foulques Nerra et reçut en récompense le château de Chaumont. Sa petite-nièce, Denise de Fougères (fille de Frangalo de Fougères selon des généalogies : cf. le site MedLands) ou de Pontlevoy, ayant épousé en 1039 Sulpice Ier d'Amboise, le château passe dans la famille d'Amboise pour cinq siècles.
 Louis XI ordonne en 1465 de brûler et de raser Chaumont pour punir Pierre d'Amboise de s'être révolté contre le pouvoir royal lors de la « Ligue du Bien public ». Rentrée en grâce, la famille d'Amboise est autorisée à reconstruire le château. C'est son fils Charles Ier d'Amboise qui l'entreprend de 1469 à 1481 en édifiant notamment l'aile nord, faisant face à la Loire, aujourd'hui disparue, et l'aile ouest, encore existante. La porte d'entrée précédée d'un double pont-levis est enserrée par deux grosses tours rondes, massives, dotées de mâchicoulis et de chemins de ronde. Contrairement à l'usage, le donjon central est abandonné au profit de la tour ouest, dite tour d'Amboise, destinée à planter l'étendard du seigneur des lieux. Des traces dans le mur intérieur de l'aile ouest indique qu'une galerie de charpente desservait les pièces de l'étage depuis la cage d'escalier.
 De 1498 à 1510, Charles II de Chaumont d'Amboise, assisté par son oncle, le cardinal Georges d'Amboise, ministre de Louis XII, poursuit la reconstruction dans le style Louis XII déjà marqué par la Renaissance tout en conservant la même allure générale fortifiée. C'est alors que sont élevées les ailes est et nord, qui viennent fermer le quadrilatère.
-Le 31 mars 1550, la reine Catherine de Médicis achète à la famille d'Amboise le château pour la somme de cent vingt mille livres[3].
+Le 31 mars 1550, la reine Catherine de Médicis achète à la famille d'Amboise le château pour la somme de cent vingt mille livres.
 À la fin de 1559, peu après le décès accidentel d'Henri II, Catherine de Médicis, qui possède le château depuis 1550, l'échange à sa rivale Diane de Poitiers, maîtresse du défunt roi, contre celui de Chenonceau.
 À la mort de Charlotte de La Marck, petite-fille de Diane (1594), le château est hérité par son époux, Henri de La Tour d'Auvergne, duc de Bouillon, qui le revend à un fermier général des gabelles nommé Jean Largentier.
-Profitant de l'arrestation de Largentier pour fraude et du droit lignager de sa femme Isabelle de Limeuil, le gentilhomme lucquois Scipion Sardini, devenant baron du lieu, puis ses fils, acquièrent le château et le conservent de 1600 à 1667[4].
+Profitant de l'arrestation de Largentier pour fraude et du droit lignager de sa femme Isabelle de Limeuil, le gentilhomme lucquois Scipion Sardini, devenant baron du lieu, puis ses fils, acquièrent le château et le conservent de 1600 à 1667.
 À cette date, le château passe par alliance aux seigneurs de Ruffignac, famille périgourdine.
 Le duc de Beauvilliers (devenu duc de Saint-Aignan à la mort de son père) l'achète à cette famille en 1699. Le château retrouve son faste passé et accueille même en 1700 le duc d'Anjou qui cheminait vers l'Espagne pour s'y asseoir sur le trône.
 À la mort du duc, une de ses filles en hérite et l'apporte à Louis de Rochechouart, duc de Mortemart, prince de Tonnay-Charente, son époux. Ce dernier, grand joueur, contracte des dettes et doit s'en séparer.
@@ -544,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Chaumont-sur-Loire</t>
+          <t>Château_de_Chaumont-sur-Loire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,10 +576,12 @@
           <t>Le château au XXIe siècle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le château de Chaumont-sur-Loire accueille chaque année dans ses jardins le Festival International des jardins. Le château et le festival forment le Domaine de Chaumont-sur-Loire, propriété de la région Centre-Val de Loire et leurs programmations culturelles deviennent complémentaires ; le parc bénéficie du label Jardin remarquable[5].</t>
+Le château de Chaumont-sur-Loire accueille chaque année dans ses jardins le Festival International des jardins. Le château et le festival forment le Domaine de Chaumont-sur-Loire, propriété de la région Centre-Val de Loire et leurs programmations culturelles deviennent complémentaires ; le parc bénéficie du label Jardin remarquable.</t>
         </is>
       </c>
     </row>
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Chaumont-sur-Loire</t>
+          <t>Château_de_Chaumont-sur-Loire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,8 +611,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">En littérature
-Honoré de Balzac, dans son roman Sur Catherine de Médicis (1842), montre Diane de Poitiers recevant le château de Chaumont des mains de Catherine de Médicis, en échange du château de Chenonceau que Diane avait offert à la reine[6].
+          <t>En littérature</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Honoré de Balzac, dans son roman Sur Catherine de Médicis (1842), montre Diane de Poitiers recevant le château de Chaumont des mains de Catherine de Médicis, en échange du château de Chenonceau que Diane avait offert à la reine.
 </t>
         </is>
       </c>
@@ -607,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Chaumont-sur-Loire</t>
+          <t>Château_de_Chaumont-sur-Loire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,7 +646,9 @@
           <t>Fréquentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château de Chaumont est le 4e château de la Loire le plus fréquenté en Loir-et-Cher, derrière le château de Chambord, le château de Cheverny et le château de Blois.
 </t>
